--- a/biology/Zoologie/Chaudhuriidae/Chaudhuriidae.xlsx
+++ b/biology/Zoologie/Chaudhuriidae/Chaudhuriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaudhuriidae est une famille de poissons d'eau douce et de l'ordre des Synbranchiformes.
 Les Chaudhuriidae ou anguilles vers de terre, aussi connu comme les anguilles à épines réduites, sont une famille de petits poissons d'eau douce liées aux anguilles des marais (Synbranchidae) et aux anguilles épineuses (Mastacembelidae). Les 10 espèces connues (2015) ont littéralement une taille et une forme de vers de terre, d'où le nom de leur famille. L’espèce d’anguille birmane Chaudhuria caudata a été signalé dans le lac Inle par Nelson Annandale, en 1918, les autres ont été récemment rapportés (depuis les années 1970), tous dans la région d’Asie de l'Est, de l'Inde à la Corée.
@@ -514,9 +526,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase 6 genres et 10 espèces sont représentés[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase 6 genres et 10 espèces sont représentés:
 genre Bihunichthys Kottelat &amp; K. K. P. Lim, 1994
 Bihunichthys monopteroides Kottelat &amp; Lim, 1994
 genre Chaudhuria Annandale, 1918
